--- a/mcmaster_excel/Tamper-Resistant_Drilled_Spanner_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/Tamper-Resistant_Drilled_Spanner_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,90 +434,100 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Min.Thread Lg.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -575,7 +585,11 @@
           <t>$9.80</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -638,7 +652,11 @@
           <t>9.85</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -701,7 +719,11 @@
           <t>10.51</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -764,7 +786,11 @@
           <t>10.83</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -827,7 +853,11 @@
           <t>10.99</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -837,20 +867,64 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.270"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.082"</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No. 6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>94066A849</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -860,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -895,7 +969,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -905,15 +979,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>94066A849</t>
+          <t>94066A144</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -923,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -968,15 +1046,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>94066A144</t>
+          <t>94066A146</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.94</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -986,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1031,15 +1113,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>94066A146</t>
+          <t>94066A148</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1049,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,15 +1180,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>94066A148</t>
+          <t>94066A151</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11.69</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1112,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1157,15 +1247,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>94066A151</t>
+          <t>94066A153</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1175,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1190,17 +1284,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No. 6</t>
+          <t>No. 8</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1210,7 +1304,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1220,15 +1314,19 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>94066A153</t>
+          <t>94066A851</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12.41</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1238,20 +1336,64 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.322"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.096"</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No. 8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>94066A192</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1261,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1296,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1306,15 +1448,19 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>94066A851</t>
+          <t>94066A195</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1324,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1359,7 +1505,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1369,15 +1515,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>94066A192</t>
+          <t>94066A852</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1387,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1432,15 +1582,19 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>94066A195</t>
+          <t>94066A197</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1450,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1485,7 +1639,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,15 +1649,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>94066A852</t>
+          <t>94066A199</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12.27</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1513,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1558,15 +1716,19 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>94066A197</t>
+          <t>94066A201</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13.77</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1576,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1621,15 +1783,19 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>94066A199</t>
+          <t>94066A203</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14.35</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1639,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1654,17 +1820,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1684,15 +1850,19 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>94066A201</t>
+          <t>94066A240</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>15.43</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1702,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1717,17 +1887,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No. 8</t>
+          <t>No. 10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1747,15 +1917,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>94066A203</t>
+          <t>94066A242</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15.60</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1765,20 +1939,64 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.110"</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No. 10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>94066A245</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1788,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1833,15 +2051,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>94066A240</t>
+          <t>94066A247</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1851,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1896,15 +2118,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>94066A242</t>
+          <t>94066A251</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1914,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1954,20 +2180,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>94066A245</t>
+          <t>94066A253</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1977,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2012,7 +2242,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2022,15 +2252,19 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>94066A247</t>
+          <t>94066A853</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14.80</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2040,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2085,15 +2319,19 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>94066A251</t>
+          <t>94066A827</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18.85</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2103,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2143,20 +2381,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>94066A253</t>
+          <t>94066A829</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2166,20 +2408,64 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.110"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No. 10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>94066A831</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2189,7 +2475,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2224,7 +2510,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2234,15 +2520,19 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>94066A853</t>
+          <t>94066A833</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2252,7 +2542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2297,15 +2587,19 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>94066A827</t>
+          <t>94066A836</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13.18</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2315,7 +2609,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2355,20 +2649,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>94066A829</t>
+          <t>94066A838</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2378,7 +2676,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2393,17 +2691,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.144"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2413,7 +2711,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2423,15 +2721,19 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>94066A831</t>
+          <t>94066A854</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2441,7 +2743,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2456,17 +2758,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.144"</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2486,15 +2788,19 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>94066A833</t>
+          <t>94066A535</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14.91</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2504,7 +2810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2519,17 +2825,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.144"</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 14</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2549,15 +2855,19 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>94066A836</t>
+          <t>94066A537</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2567,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2582,17 +2892,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.144"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No. 10</t>
+          <t>No. 14</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2602,7 +2912,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2612,15 +2922,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>94066A838</t>
+          <t>94066A855</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2630,7 +2944,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2665,22 +2979,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>94066A854</t>
+          <t>94066A540</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2697,7 +3011,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2737,17 +3051,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>94066A535</t>
+          <t>94066A542</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2764,7 +3078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2799,22 +3113,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>94066A537</t>
+          <t>94066A856</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19.14</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2831,7 +3145,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2866,7 +3180,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.3</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2876,12 +3190,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>94066A855</t>
+          <t>94066A546</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2898,7 +3212,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2943,12 +3257,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>94066A540</t>
+          <t>94066A550</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2965,17 +3279,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3010,12 +3324,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>94066A542</t>
+          <t>94066A554</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3032,7 +3346,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3077,17 +3391,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>94066A856</t>
+          <t>94066A857</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3099,7 +3413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3134,7 +3448,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3144,17 +3458,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>94066A546</t>
+          <t>94066A858</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3166,7 +3480,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3201,7 +3515,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3211,315 +3525,20 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>94066A550</t>
+          <t>94066A859</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>3"</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.492"</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.144"</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No. 14</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>94066A554</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.492"</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.144"</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>No. 14</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>94066A857</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.492"</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.144"</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>No. 14</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>94066A858</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.492"</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.144"</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No. 14</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>94066A859</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
